--- a/tests/data/sample.xlsx
+++ b/tests/data/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kurita/dev/adansons/base/tests/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yushi/Documents/GitHub/base/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4081025E-99E2-5246-A4F4-E91F7E9BD055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DF4F85-06C8-FB44-A3FF-EF5DFB10F6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20240" yWindow="5400" windowWidth="28300" windowHeight="17440"/>
+    <workbookView xWindow="6120" yWindow="2460" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample" sheetId="1" r:id="rId1"/>
@@ -20,26 +20,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>key1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>key2</t>
   </si>
   <si>
     <t>key3</t>
   </si>
+  <si>
+    <t>キー1</t>
+  </si>
+  <si>
+    <t>い</t>
+  </si>
+  <si>
+    <t>ろ</t>
+  </si>
+  <si>
+    <t>は</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -47,7 +56,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -55,7 +64,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="游ゴシック Light"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -64,7 +73,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -73,7 +82,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -82,7 +91,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -90,7 +99,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -98,7 +107,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -106,7 +115,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -114,7 +123,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -123,7 +132,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -132,7 +141,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -140,7 +149,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -149,7 +158,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -157,7 +166,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -166,7 +175,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -175,7 +184,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -183,14 +192,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -627,48 +636,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -684,7 +693,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -979,29 +988,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -1010,8 +1019,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
@@ -1021,9 +1030,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>7</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4">
         <v>8</v>
